--- a/折800 - 表设计.xlsx
+++ b/折800 - 表设计.xlsx
@@ -1,227 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijiexu/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2940" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView windowWidth="20385" windowHeight="8100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>表名</t>
-    <rPh sb="0" eb="1">
-      <t>biao'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
   </si>
   <si>
     <t>表引擎</t>
-    <rPh sb="0" eb="1">
-      <t>biao</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yin'qing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyIsam</t>
   </si>
   <si>
     <t>表注释</t>
-    <rPh sb="0" eb="1">
-      <t>biao'zhu'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
   </si>
   <si>
     <t>字段名</t>
-    <rPh sb="0" eb="1">
-      <t>zi'duan'ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
-    <rPh sb="0" eb="1">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lei'xing</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段长度</t>
-    <rPh sb="0" eb="1">
-      <t>zi'duan'chang'du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否主键</t>
-    <rPh sb="0" eb="1">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'jian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否自增</t>
-    <rPh sb="0" eb="1">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zi'zeng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>索引</t>
-    <rPh sb="0" eb="1">
-      <t>suo'yin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>字段注释</t>
-    <rPh sb="0" eb="1">
-      <t>zi'duan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhu'shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyIsam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu'biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户id</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>user_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>唯一索引</t>
-    <rPh sb="0" eb="1">
-      <t>wei'yi'suo'yin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户昵称</t>
-    <rPh sb="0" eb="1">
-      <t>yong'hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ni'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pwd</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>user_tel</t>
+  </si>
+  <si>
+    <t>用户手机号</t>
+  </si>
+  <si>
+    <t>user_email</t>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>本次登录时间</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>上次登录时间</t>
+  </si>
+  <si>
+    <t>info_id</t>
+  </si>
+  <si>
+    <t>用户信息关联id</t>
   </si>
   <si>
     <t>goods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商品表</t>
-    <rPh sb="0" eb="1">
-      <t>shang'pin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>biao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>goods_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商品id</t>
-    <rPh sb="0" eb="1">
-      <t>shang'pin</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>goods_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商品名称</t>
-    <rPh sb="0" eb="1">
-      <t>shang'pin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'cheng</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_sn</t>
+  </si>
+  <si>
+    <t>商品货号</t>
+  </si>
+  <si>
+    <t>cat_id</t>
+  </si>
+  <si>
+    <t>所属分类id</t>
+  </si>
+  <si>
+    <t>shop_price</t>
+  </si>
+  <si>
+    <t>市场价格</t>
+  </si>
+  <si>
+    <t>sell_price</t>
+  </si>
+  <si>
+    <t>销售价格</t>
+  </si>
+  <si>
+    <t>cost_price</t>
+  </si>
+  <si>
+    <t>成本价格</t>
+  </si>
+  <si>
+    <t>promotion_price</t>
+  </si>
+  <si>
+    <t>促销价格</t>
+  </si>
+  <si>
+    <t>promotion_status</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>是否促销</t>
+  </si>
+  <si>
+    <t>up_time</t>
+  </si>
+  <si>
+    <t>上架时间</t>
+  </si>
+  <si>
+    <t>down_time</t>
+  </si>
+  <si>
+    <t>下架时间</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>商品状态</t>
+  </si>
+  <si>
+    <t>goods_img</t>
+  </si>
+  <si>
+    <t>商品大图</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>商品描述</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>计件单位</t>
+  </si>
+  <si>
+    <t>goods_sort</t>
+  </si>
+  <si>
+    <t>商品排序</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>商品销量</t>
+  </si>
+  <si>
+    <t>seller_id</t>
+  </si>
+  <si>
+    <t>卖家id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -230,27 +261,356 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -273,26 +633,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -345,7 +998,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -380,7 +1033,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -554,197 +1207,585 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2">
+        <v>200</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C27" s="5">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1">
-        <v>200</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
+      <c r="C30" s="5">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>